--- a/lbl/Progress.xlsx
+++ b/lbl/Progress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\!Summaries\lbl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Documents\summaries\lbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF687A0F-D70B-430B-8B78-360C90CBA440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B9F904-9B03-4960-8BF9-7D7BB25F8B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24B" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{038D390C-8F1B-4F12-84BC-66648BC6E07A}" name="Table1" displayName="Table1" ref="A1:B7">
   <autoFilter ref="A1:B7" xr:uid="{038D390C-8F1B-4F12-84BC-66648BC6E07A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
-    <sortCondition ref="B2:B7"/>
+    <sortCondition ref="B1:B7"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A14A81E1-C0C7-49D1-9D52-9F18C7DCCFDD}" name="Name" totalsRowLabel="Total"/>
@@ -384,7 +384,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>45473</v>
+        <v>45480</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">

--- a/lbl/Progress.xlsx
+++ b/lbl/Progress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Documents\summaries\lbl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\!Summaries\lbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B9F904-9B03-4960-8BF9-7D7BB25F8B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3574EAB5-47FA-4EC9-9585-11701255E2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24B" sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,18 +435,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>45480</v>
+        <v>45489</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>45489</v>
+        <v>45494</v>
       </c>
     </row>
   </sheetData>

--- a/lbl/Progress.xlsx
+++ b/lbl/Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\!Summaries\lbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3574EAB5-47FA-4EC9-9585-11701255E2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62452198-D87B-49BA-868D-93172EE5F739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24B" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>logic for computer science</t>
+  </si>
+  <si>
+    <t>Rec</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -105,14 +114,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{038D390C-8F1B-4F12-84BC-66648BC6E07A}" name="Table1" displayName="Table1" ref="A1:B7">
-  <autoFilter ref="A1:B7" xr:uid="{038D390C-8F1B-4F12-84BC-66648BC6E07A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{038D390C-8F1B-4F12-84BC-66648BC6E07A}" name="Table1" displayName="Table1" ref="A1:D7">
+  <autoFilter ref="A1:D7" xr:uid="{038D390C-8F1B-4F12-84BC-66648BC6E07A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
     <sortCondition ref="B1:B7"/>
   </sortState>
-  <tableColumns count="2">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A14A81E1-C0C7-49D1-9D52-9F18C7DCCFDD}" name="Name" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{A4540E0B-EE54-44A8-9130-68D20B98CFA0}" name="Last updated" totalsRowFunction="count"/>
+    <tableColumn id="3" xr3:uid="{F125FD9B-6961-44DC-B9DA-EF0F8DA92CE0}" name="Rec"/>
+    <tableColumn id="4" xr3:uid="{A08B2292-1D51-42BB-B075-4023177A518C}" name="HW"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -381,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,63 +404,110 @@
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>45441</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>45449</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>45460</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>45468</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>45489</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>45494</v>
       </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D7" xr:uid="{9B1B0241-F927-4097-8DA2-76E1B2C1CE68}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/lbl/Progress.xlsx
+++ b/lbl/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\!Summaries\lbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62452198-D87B-49BA-868D-93172EE5F739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1323D8D-F8BE-4FB5-940D-110993A0E4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{038D390C-8F1B-4F12-84BC-66648BC6E07A}" name="Table1" displayName="Table1" ref="A1:D7">
   <autoFilter ref="A1:D7" xr:uid="{038D390C-8F1B-4F12-84BC-66648BC6E07A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D7">
     <sortCondition ref="B1:B7"/>
   </sortState>
   <tableColumns count="4">
@@ -395,7 +395,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,10 +448,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>45460</v>
+        <v>45468</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -462,10 +462,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>45468</v>
+        <v>45489</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -476,10 +476,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>45489</v>
+        <v>45494</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -490,10 +490,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>45494</v>
+        <v>45502</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>

--- a/lbl/Progress.xlsx
+++ b/lbl/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\!Summaries\lbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1323D8D-F8BE-4FB5-940D-110993A0E4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF35728-03F2-4817-9A29-520AD80557FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>HW</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -395,7 +392,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,11 +422,11 @@
       <c r="B2" s="1">
         <v>45441</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -439,11 +436,11 @@
       <c r="B3" s="1">
         <v>45449</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -453,11 +450,11 @@
       <c r="B4" s="1">
         <v>45468</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -467,11 +464,11 @@
       <c r="B5" s="1">
         <v>45489</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -481,11 +478,11 @@
       <c r="B6" s="1">
         <v>45494</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -495,19 +492,14 @@
       <c r="B7" s="1">
         <v>45502</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D7" xr:uid="{9B1B0241-F927-4097-8DA2-76E1B2C1CE68}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/lbl/Progress.xlsx
+++ b/lbl/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\!Summaries\lbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF35728-03F2-4817-9A29-520AD80557FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0139ECCC-68D3-4A40-B0A7-9308C063EC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,7 +392,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
         <v>45502</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>9</v>

--- a/lbl/Progress.xlsx
+++ b/lbl/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\!Summaries\lbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0139ECCC-68D3-4A40-B0A7-9308C063EC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3209DED7-FB35-472F-9506-58D6679052F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>HW</t>
+  </si>
+  <si>
+    <t>9a</t>
+  </si>
+  <si>
+    <t>Lec</t>
   </si>
 </sst>
 </file>
@@ -97,7 +103,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -111,14 +121,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{038D390C-8F1B-4F12-84BC-66648BC6E07A}" name="Table1" displayName="Table1" ref="A1:D7">
-  <autoFilter ref="A1:D7" xr:uid="{038D390C-8F1B-4F12-84BC-66648BC6E07A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{038D390C-8F1B-4F12-84BC-66648BC6E07A}" name="Table1" displayName="Table1" ref="A1:E7">
+  <autoFilter ref="A1:E7" xr:uid="{038D390C-8F1B-4F12-84BC-66648BC6E07A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E7">
     <sortCondition ref="B1:B7"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A14A81E1-C0C7-49D1-9D52-9F18C7DCCFDD}" name="Name" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{A4540E0B-EE54-44A8-9130-68D20B98CFA0}" name="Last updated" totalsRowFunction="count"/>
+    <tableColumn id="5" xr3:uid="{07B6C071-64F9-4B77-A919-5C9046F9AD0E}" name="Lec" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{F125FD9B-6961-44DC-B9DA-EF0F8DA92CE0}" name="Rec"/>
     <tableColumn id="4" xr3:uid="{A08B2292-1D51-42BB-B075-4023177A518C}" name="HW"/>
   </tableColumns>
@@ -389,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +412,7 @@
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,94 +420,100 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>45441</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>45449</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>45468</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45501</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45502</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>45489</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45494</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
       <c r="B7" s="1">
-        <v>45502</v>
-      </c>
-      <c r="C7">
+        <v>45503</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/lbl/Progress.xlsx
+++ b/lbl/Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\!Summaries\lbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3209DED7-FB35-472F-9506-58D6679052F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E467D1-860D-48A1-866F-431838CEDBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24B" sheetId="1" r:id="rId1"/>
@@ -445,10 +445,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>45449</v>
+        <v>45468</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -459,10 +459,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>45468</v>
+        <v>45484</v>
       </c>
       <c r="D4">
         <v>0</v>

--- a/lbl/Progress.xlsx
+++ b/lbl/Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\!Summaries\lbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E467D1-860D-48A1-866F-431838CEDBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA7F234-5FD8-4C14-BDF9-77FA5370DC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24B" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +434,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>45441</v>
+        <v>45460</v>
       </c>
       <c r="D2">
         <v>0</v>

--- a/lbl/Progress.xlsx
+++ b/lbl/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\!Summaries\lbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA7F234-5FD8-4C14-BDF9-77FA5370DC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9666FC7D-8A9A-4FF2-84AF-FCE67A49C570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +434,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="D2">
         <v>0</v>

--- a/lbl/Progress.xlsx
+++ b/lbl/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\!Summaries\lbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9666FC7D-8A9A-4FF2-84AF-FCE67A49C570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61802C66-3E5D-47B9-92B2-34DCABC9722C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,10 +431,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>45467</v>
+        <v>45468</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -445,10 +445,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>45468</v>
+        <v>45484</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -459,10 +459,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>45484</v>
+        <v>45488</v>
       </c>
       <c r="D4">
         <v>0</v>

--- a/lbl/Progress.xlsx
+++ b/lbl/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\!Summaries\lbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61802C66-3E5D-47B9-92B2-34DCABC9722C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7692290-D525-4919-8769-0DB1AED1A08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>45488</v>
+        <v>45495</v>
       </c>
       <c r="D4">
         <v>0</v>

--- a/lbl/Progress.xlsx
+++ b/lbl/Progress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\!Summaries\lbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7692290-D525-4919-8769-0DB1AED1A08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA99F86B-E00D-464F-8025-33E1968695E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,10 +459,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>45495</v>
+        <v>45501</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -473,10 +473,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>45501</v>
+        <v>45502</v>
       </c>
       <c r="D5">
         <v>0</v>

--- a/lbl/Progress.xlsx
+++ b/lbl/Progress.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\!Summaries\lbl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Documents\summaries\lbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA99F86B-E00D-464F-8025-33E1968695E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04221902-15A6-48E4-886E-80366E8FF563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,47 +473,41 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>45502</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>45502</v>
+        <v>45503</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
-        <v>45503</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>45515</v>
       </c>
     </row>
   </sheetData>

--- a/lbl/Progress.xlsx
+++ b/lbl/Progress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Documents\summaries\lbl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\!Summaries\lbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04221902-15A6-48E4-886E-80366E8FF563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0D172B-46F2-4F3C-9C0D-4D3557A905BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24B" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -57,10 +57,19 @@
     <t>HW</t>
   </si>
   <si>
-    <t>9a</t>
-  </si>
-  <si>
     <t>Lec</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Complete other semesters</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>10b</t>
   </si>
 </sst>
 </file>
@@ -121,17 +130,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{038D390C-8F1B-4F12-84BC-66648BC6E07A}" name="Table1" displayName="Table1" ref="A1:E7">
-  <autoFilter ref="A1:E7" xr:uid="{038D390C-8F1B-4F12-84BC-66648BC6E07A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{038D390C-8F1B-4F12-84BC-66648BC6E07A}" name="Table1" displayName="Table1" ref="A1:F7">
+  <autoFilter ref="A1:F7" xr:uid="{038D390C-8F1B-4F12-84BC-66648BC6E07A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E7">
     <sortCondition ref="B1:B7"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A14A81E1-C0C7-49D1-9D52-9F18C7DCCFDD}" name="Name" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{A4540E0B-EE54-44A8-9130-68D20B98CFA0}" name="Last updated" totalsRowFunction="count"/>
     <tableColumn id="5" xr3:uid="{07B6C071-64F9-4B77-A919-5C9046F9AD0E}" name="Lec" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{F125FD9B-6961-44DC-B9DA-EF0F8DA92CE0}" name="Rec"/>
     <tableColumn id="4" xr3:uid="{A08B2292-1D51-42BB-B075-4023177A518C}" name="HW"/>
+    <tableColumn id="6" xr3:uid="{219A3694-60BD-4638-BEBA-2E559D0E2207}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -400,19 +410,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +431,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -428,8 +439,11 @@
       <c r="E1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -443,7 +457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -457,7 +471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -471,7 +485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -485,7 +499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -493,21 +507,27 @@
         <v>45503</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>45515</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/lbl/Progress.xlsx
+++ b/lbl/Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\!Summaries\lbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0D172B-46F2-4F3C-9C0D-4D3557A905BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7F2E23-3ADE-4288-B281-6DB03A6D738B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24B" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>10b</t>
   </si>
 </sst>
 </file>
@@ -132,7 +129,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{038D390C-8F1B-4F12-84BC-66648BC6E07A}" name="Table1" displayName="Table1" ref="A1:F7">
   <autoFilter ref="A1:F7" xr:uid="{038D390C-8F1B-4F12-84BC-66648BC6E07A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
     <sortCondition ref="B1:B7"/>
   </sortState>
   <tableColumns count="6">
@@ -413,7 +410,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,26 +500,16 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>45503</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
-        <v>45515</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" t="s">
         <v>13</v>
       </c>

--- a/lbl/Progress.xlsx
+++ b/lbl/Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\!Summaries\lbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7F2E23-3ADE-4288-B281-6DB03A6D738B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0B084A-9C46-4649-BAD7-C211A9126A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24B" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Need algorithms in the end</t>
+  </si>
+  <si>
+    <t>Need formatting</t>
   </si>
 </sst>
 </file>
@@ -410,7 +416,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>45468</v>
+        <v>45489</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -453,13 +459,16 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>45484</v>
+        <v>45501</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -470,30 +479,28 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>45501</v>
+        <v>45502</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45502</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">

--- a/lbl/Progress.xlsx
+++ b/lbl/Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\!Summaries\lbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0B084A-9C46-4649-BAD7-C211A9126A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250B5800-C80F-44A4-BD61-962CF5BFE260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24B" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/lbl/Progress.xlsx
+++ b/lbl/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\!Summaries\lbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250B5800-C80F-44A4-BD61-962CF5BFE260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F232962C-10F6-40D6-AF7C-3365621FB5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -416,7 +416,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,14 +481,9 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>45502</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">

--- a/lbl/Progress.xlsx
+++ b/lbl/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\!Summaries\lbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F232962C-10F6-40D6-AF7C-3365621FB5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B906082B-B666-4112-A80E-89CC576FBD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Need formatting</t>
+  </si>
+  <si>
+    <t>Complete gedels proof</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,14 +470,12 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
-        <v>45501</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">

--- a/lbl/Progress.xlsx
+++ b/lbl/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\!Summaries\lbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B906082B-B666-4112-A80E-89CC576FBD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2021A6-4C92-4072-BE6A-032EA3408A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,10 +72,10 @@
     <t>Need algorithms in the end</t>
   </si>
   <si>
-    <t>Need formatting</t>
-  </si>
-  <si>
-    <t>Complete gedels proof</t>
+    <t>Add algorithms, Complete gedels proof</t>
+  </si>
+  <si>
+    <t>ode</t>
   </si>
 </sst>
 </file>
@@ -136,10 +136,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{038D390C-8F1B-4F12-84BC-66648BC6E07A}" name="Table1" displayName="Table1" ref="A1:F7">
-  <autoFilter ref="A1:F7" xr:uid="{038D390C-8F1B-4F12-84BC-66648BC6E07A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
-    <sortCondition ref="B1:B7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{038D390C-8F1B-4F12-84BC-66648BC6E07A}" name="Table1" displayName="Table1" ref="A1:F8">
+  <autoFilter ref="A1:F8" xr:uid="{038D390C-8F1B-4F12-84BC-66648BC6E07A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F8">
+    <sortCondition ref="B1:B8"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A14A81E1-C0C7-49D1-9D52-9F18C7DCCFDD}" name="Name" totalsRowLabel="Total"/>
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -451,72 +451,78 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
-        <v>45489</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
+        <v>45438</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45489</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
         <v>13</v>
       </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>13</v>
       </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
         <v>12</v>
       </c>
     </row>
